--- a/Excel-XLSX/UN-SVK.xlsx
+++ b/Excel-XLSX/UN-SVK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="1025">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>10RlDT</t>
+    <t>8e5Fub</t>
   </si>
   <si>
     <t>1993</t>
@@ -2967,33 +2967,30 @@
     <t>764</t>
   </si>
   <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
     <t>765</t>
   </si>
   <si>
     <t>766</t>
   </si>
   <si>
+    <t>767</t>
+  </si>
+  <si>
     <t>United Kingdom of Great Britain and Northern Ireland</t>
   </si>
   <si>
     <t>GBR</t>
   </si>
   <si>
-    <t>767</t>
-  </si>
-  <si>
     <t>768</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>GFR</t>
-  </si>
-  <si>
-    <t>DEU</t>
-  </si>
-  <si>
     <t>769</t>
   </si>
   <si>
@@ -3060,15 +3057,15 @@
     <t>790</t>
   </si>
   <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>TKM</t>
+  </si>
+  <si>
     <t>791</t>
   </si>
   <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>TJK</t>
-  </si>
-  <si>
     <t>792</t>
   </si>
   <si>
@@ -3081,19 +3078,19 @@
     <t>795</t>
   </si>
   <si>
+    <t>142172</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
     <t>796</t>
   </si>
   <si>
-    <t>122242</t>
-  </si>
-  <si>
     <t>797</t>
   </si>
   <si>
     <t>798</t>
-  </si>
-  <si>
-    <t>799</t>
   </si>
 </sst>
 </file>
@@ -3478,7 +3475,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V800"/>
+  <dimension ref="A1:V799"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -54527,10 +54524,10 @@
         <v>30</v>
       </c>
       <c r="N751" s="2" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="O751" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="P751" s="2" t="s">
         <v>32</v>
@@ -54731,7 +54728,7 @@
         <v>30</v>
       </c>
       <c r="N754" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="O754" s="2" t="s">
         <v>32</v>
@@ -54799,7 +54796,7 @@
         <v>30</v>
       </c>
       <c r="N755" s="2" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="O755" s="2" t="s">
         <v>32</v>
@@ -54867,7 +54864,7 @@
         <v>30</v>
       </c>
       <c r="N756" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="O756" s="2" t="s">
         <v>32</v>
@@ -55003,10 +55000,10 @@
         <v>30</v>
       </c>
       <c r="N758" s="2" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="O758" s="2" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="P758" s="2" t="s">
         <v>32</v>
@@ -55455,16 +55452,16 @@
         <v>968</v>
       </c>
       <c r="F765" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G765" s="1" t="s">
-        <v>451</v>
+        <v>983</v>
       </c>
       <c r="H765" s="1" t="s">
-        <v>452</v>
+        <v>984</v>
       </c>
       <c r="I765" s="1" t="s">
-        <v>452</v>
+        <v>984</v>
       </c>
       <c r="J765" s="2" t="s">
         <v>28</v>
@@ -55479,10 +55476,10 @@
         <v>30</v>
       </c>
       <c r="N765" s="2" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="O765" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="P765" s="2" t="s">
         <v>32</v>
@@ -55517,22 +55514,22 @@
         <v>22</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="E766" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F766" s="2" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="G766" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H766" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I766" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="J766" s="2" t="s">
         <v>28</v>
@@ -55547,7 +55544,7 @@
         <v>30</v>
       </c>
       <c r="N766" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="O766" s="2" t="s">
         <v>32</v>
@@ -55585,22 +55582,22 @@
         <v>22</v>
       </c>
       <c r="D767" s="2" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="E767" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F767" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G767" s="1" t="s">
-        <v>985</v>
+        <v>454</v>
       </c>
       <c r="H767" s="1" t="s">
-        <v>986</v>
+        <v>455</v>
       </c>
       <c r="I767" s="1" t="s">
-        <v>986</v>
+        <v>456</v>
       </c>
       <c r="J767" s="2" t="s">
         <v>28</v>
@@ -55615,7 +55612,7 @@
         <v>30</v>
       </c>
       <c r="N767" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O767" s="2" t="s">
         <v>32</v>
@@ -55659,16 +55656,16 @@
         <v>968</v>
       </c>
       <c r="F768" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G768" s="1" t="s">
-        <v>225</v>
+        <v>988</v>
       </c>
       <c r="H768" s="1" t="s">
-        <v>226</v>
+        <v>989</v>
       </c>
       <c r="I768" s="1" t="s">
-        <v>226</v>
+        <v>989</v>
       </c>
       <c r="J768" s="2" t="s">
         <v>28</v>
@@ -55683,7 +55680,7 @@
         <v>30</v>
       </c>
       <c r="N768" s="2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="O768" s="2" t="s">
         <v>32</v>
@@ -55721,22 +55718,22 @@
         <v>22</v>
       </c>
       <c r="D769" s="2" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E769" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F769" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G769" s="1" t="s">
-        <v>989</v>
+        <v>225</v>
       </c>
       <c r="H769" s="1" t="s">
-        <v>990</v>
+        <v>226</v>
       </c>
       <c r="I769" s="1" t="s">
-        <v>991</v>
+        <v>226</v>
       </c>
       <c r="J769" s="2" t="s">
         <v>28</v>
@@ -55751,10 +55748,10 @@
         <v>30</v>
       </c>
       <c r="N769" s="2" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="O769" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P769" s="2" t="s">
         <v>32</v>
@@ -55789,7 +55786,7 @@
         <v>22</v>
       </c>
       <c r="D770" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E770" s="2" t="s">
         <v>968</v>
@@ -55819,7 +55816,7 @@
         <v>30</v>
       </c>
       <c r="N770" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O770" s="2" t="s">
         <v>49</v>
@@ -55857,7 +55854,7 @@
         <v>22</v>
       </c>
       <c r="D771" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E771" s="2" t="s">
         <v>968</v>
@@ -55887,7 +55884,7 @@
         <v>30</v>
       </c>
       <c r="N771" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O771" s="2" t="s">
         <v>32</v>
@@ -55925,7 +55922,7 @@
         <v>22</v>
       </c>
       <c r="D772" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E772" s="2" t="s">
         <v>968</v>
@@ -55955,7 +55952,7 @@
         <v>30</v>
       </c>
       <c r="N772" s="2" t="s">
-        <v>63</v>
+        <v>390</v>
       </c>
       <c r="O772" s="2" t="s">
         <v>49</v>
@@ -55993,7 +55990,7 @@
         <v>22</v>
       </c>
       <c r="D773" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E773" s="2" t="s">
         <v>968</v>
@@ -56023,7 +56020,7 @@
         <v>30</v>
       </c>
       <c r="N773" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O773" s="2" t="s">
         <v>32</v>
@@ -56061,7 +56058,7 @@
         <v>22</v>
       </c>
       <c r="D774" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E774" s="2" t="s">
         <v>968</v>
@@ -56129,7 +56126,7 @@
         <v>22</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E775" s="2" t="s">
         <v>968</v>
@@ -56159,7 +56156,7 @@
         <v>30</v>
       </c>
       <c r="N775" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="O775" s="2" t="s">
         <v>32</v>
@@ -56197,7 +56194,7 @@
         <v>22</v>
       </c>
       <c r="D776" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E776" s="2" t="s">
         <v>968</v>
@@ -56265,7 +56262,7 @@
         <v>22</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E777" s="2" t="s">
         <v>968</v>
@@ -56333,7 +56330,7 @@
         <v>22</v>
       </c>
       <c r="D778" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E778" s="2" t="s">
         <v>968</v>
@@ -56363,10 +56360,10 @@
         <v>30</v>
       </c>
       <c r="N778" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O778" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P778" s="2" t="s">
         <v>32</v>
@@ -56401,7 +56398,7 @@
         <v>22</v>
       </c>
       <c r="D779" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E779" s="2" t="s">
         <v>968</v>
@@ -56469,22 +56466,22 @@
         <v>22</v>
       </c>
       <c r="D780" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E780" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F780" s="2" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="G780" s="1" t="s">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="H780" s="1" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="I780" s="1" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="J780" s="2" t="s">
         <v>28</v>
@@ -56499,10 +56496,10 @@
         <v>30</v>
       </c>
       <c r="N780" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="O780" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P780" s="2" t="s">
         <v>32</v>
@@ -56537,22 +56534,22 @@
         <v>22</v>
       </c>
       <c r="D781" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E781" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F781" s="2" t="s">
-        <v>145</v>
+        <v>302</v>
       </c>
       <c r="G781" s="1" t="s">
-        <v>239</v>
+        <v>467</v>
       </c>
       <c r="H781" s="1" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="I781" s="1" t="s">
-        <v>240</v>
+        <v>469</v>
       </c>
       <c r="J781" s="2" t="s">
         <v>28</v>
@@ -56567,7 +56564,7 @@
         <v>30</v>
       </c>
       <c r="N781" s="2" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="O781" s="2" t="s">
         <v>32</v>
@@ -56605,22 +56602,22 @@
         <v>22</v>
       </c>
       <c r="D782" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E782" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F782" s="2" t="s">
-        <v>302</v>
+        <v>242</v>
       </c>
       <c r="G782" s="1" t="s">
-        <v>467</v>
+        <v>243</v>
       </c>
       <c r="H782" s="1" t="s">
-        <v>468</v>
+        <v>244</v>
       </c>
       <c r="I782" s="1" t="s">
-        <v>469</v>
+        <v>245</v>
       </c>
       <c r="J782" s="2" t="s">
         <v>28</v>
@@ -56635,10 +56632,10 @@
         <v>30</v>
       </c>
       <c r="N782" s="2" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="O782" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="P782" s="2" t="s">
         <v>32</v>
@@ -56673,22 +56670,22 @@
         <v>22</v>
       </c>
       <c r="D783" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E783" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F783" s="2" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="G783" s="1" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="H783" s="1" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="I783" s="1" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="J783" s="2" t="s">
         <v>28</v>
@@ -56703,10 +56700,10 @@
         <v>30</v>
       </c>
       <c r="N783" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="O783" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="P783" s="2" t="s">
         <v>32</v>
@@ -56741,22 +56738,22 @@
         <v>22</v>
       </c>
       <c r="D784" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E784" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F784" s="2" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="G784" s="1" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="H784" s="1" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="I784" s="1" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="J784" s="2" t="s">
         <v>28</v>
@@ -56771,10 +56768,10 @@
         <v>30</v>
       </c>
       <c r="N784" s="2" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="O784" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="P784" s="2" t="s">
         <v>32</v>
@@ -56809,22 +56806,22 @@
         <v>22</v>
       </c>
       <c r="D785" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E785" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F785" s="2" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="G785" s="1" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="H785" s="1" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="I785" s="1" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="J785" s="2" t="s">
         <v>28</v>
@@ -56839,10 +56836,10 @@
         <v>30</v>
       </c>
       <c r="N785" s="2" t="s">
-        <v>95</v>
+        <v>693</v>
       </c>
       <c r="O785" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="P785" s="2" t="s">
         <v>32</v>
@@ -56877,22 +56874,22 @@
         <v>22</v>
       </c>
       <c r="D786" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E786" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F786" s="2" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="G786" s="1" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="H786" s="1" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="I786" s="1" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="J786" s="2" t="s">
         <v>28</v>
@@ -56907,10 +56904,10 @@
         <v>30</v>
       </c>
       <c r="N786" s="2" t="s">
-        <v>614</v>
+        <v>121</v>
       </c>
       <c r="O786" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P786" s="2" t="s">
         <v>32</v>
@@ -56945,22 +56942,22 @@
         <v>22</v>
       </c>
       <c r="D787" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E787" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F787" s="2" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="G787" s="1" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="H787" s="1" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="I787" s="1" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="J787" s="2" t="s">
         <v>28</v>
@@ -56975,7 +56972,7 @@
         <v>30</v>
       </c>
       <c r="N787" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="O787" s="2" t="s">
         <v>32</v>
@@ -57013,22 +57010,22 @@
         <v>22</v>
       </c>
       <c r="D788" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E788" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F788" s="2" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="G788" s="1" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="H788" s="1" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="I788" s="1" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="J788" s="2" t="s">
         <v>28</v>
@@ -57043,7 +57040,7 @@
         <v>30</v>
       </c>
       <c r="N788" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="O788" s="2" t="s">
         <v>32</v>
@@ -57081,22 +57078,22 @@
         <v>22</v>
       </c>
       <c r="D789" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E789" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F789" s="2" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="G789" s="1" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H789" s="1" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="I789" s="1" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="J789" s="2" t="s">
         <v>28</v>
@@ -57111,7 +57108,7 @@
         <v>30</v>
       </c>
       <c r="N789" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="O789" s="2" t="s">
         <v>32</v>
@@ -57126,7 +57123,7 @@
         <v>32</v>
       </c>
       <c r="S789" s="2" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="T789" s="2" t="s">
         <v>32</v>
@@ -57149,22 +57146,22 @@
         <v>22</v>
       </c>
       <c r="D790" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E790" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F790" s="2" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="G790" s="1" t="s">
-        <v>64</v>
+        <v>263</v>
       </c>
       <c r="H790" s="1" t="s">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="I790" s="1" t="s">
-        <v>66</v>
+        <v>264</v>
       </c>
       <c r="J790" s="2" t="s">
         <v>28</v>
@@ -57179,7 +57176,7 @@
         <v>30</v>
       </c>
       <c r="N790" s="2" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="O790" s="2" t="s">
         <v>32</v>
@@ -57194,7 +57191,7 @@
         <v>32</v>
       </c>
       <c r="S790" s="2" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="T790" s="2" t="s">
         <v>32</v>
@@ -57217,22 +57214,22 @@
         <v>22</v>
       </c>
       <c r="D791" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E791" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F791" s="2" t="s">
-        <v>262</v>
+        <v>361</v>
       </c>
       <c r="G791" s="1" t="s">
-        <v>263</v>
+        <v>1013</v>
       </c>
       <c r="H791" s="1" t="s">
-        <v>264</v>
+        <v>1014</v>
       </c>
       <c r="I791" s="1" t="s">
-        <v>264</v>
+        <v>1014</v>
       </c>
       <c r="J791" s="2" t="s">
         <v>28</v>
@@ -57247,10 +57244,10 @@
         <v>30</v>
       </c>
       <c r="N791" s="2" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="O791" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="P791" s="2" t="s">
         <v>32</v>
@@ -57285,22 +57282,22 @@
         <v>22</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E792" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F792" s="2" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G792" s="1" t="s">
-        <v>1015</v>
+        <v>907</v>
       </c>
       <c r="H792" s="1" t="s">
-        <v>1016</v>
+        <v>908</v>
       </c>
       <c r="I792" s="1" t="s">
-        <v>1016</v>
+        <v>908</v>
       </c>
       <c r="J792" s="2" t="s">
         <v>28</v>
@@ -57353,22 +57350,22 @@
         <v>22</v>
       </c>
       <c r="D793" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E793" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F793" s="2" t="s">
-        <v>365</v>
+        <v>189</v>
       </c>
       <c r="G793" s="1" t="s">
-        <v>907</v>
+        <v>190</v>
       </c>
       <c r="H793" s="1" t="s">
-        <v>908</v>
+        <v>191</v>
       </c>
       <c r="I793" s="1" t="s">
-        <v>908</v>
+        <v>191</v>
       </c>
       <c r="J793" s="2" t="s">
         <v>28</v>
@@ -57383,10 +57380,10 @@
         <v>30</v>
       </c>
       <c r="N793" s="2" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="O793" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P793" s="2" t="s">
         <v>32</v>
@@ -57421,22 +57418,22 @@
         <v>22</v>
       </c>
       <c r="D794" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E794" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F794" s="2" t="s">
-        <v>189</v>
+        <v>370</v>
       </c>
       <c r="G794" s="1" t="s">
-        <v>190</v>
+        <v>673</v>
       </c>
       <c r="H794" s="1" t="s">
-        <v>191</v>
+        <v>674</v>
       </c>
       <c r="I794" s="1" t="s">
-        <v>191</v>
+        <v>674</v>
       </c>
       <c r="J794" s="2" t="s">
         <v>28</v>
@@ -57451,10 +57448,10 @@
         <v>30</v>
       </c>
       <c r="N794" s="2" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="O794" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="P794" s="2" t="s">
         <v>32</v>
@@ -57489,22 +57486,22 @@
         <v>22</v>
       </c>
       <c r="D795" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E795" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F795" s="2" t="s">
-        <v>370</v>
+        <v>35</v>
       </c>
       <c r="G795" s="1" t="s">
-        <v>673</v>
+        <v>36</v>
       </c>
       <c r="H795" s="1" t="s">
-        <v>674</v>
+        <v>37</v>
       </c>
       <c r="I795" s="1" t="s">
-        <v>674</v>
+        <v>38</v>
       </c>
       <c r="J795" s="2" t="s">
         <v>28</v>
@@ -57519,7 +57516,7 @@
         <v>30</v>
       </c>
       <c r="N795" s="2" t="s">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="O795" s="2" t="s">
         <v>32</v>
@@ -57557,22 +57554,22 @@
         <v>22</v>
       </c>
       <c r="D796" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E796" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F796" s="2" t="s">
-        <v>35</v>
+        <v>267</v>
       </c>
       <c r="G796" s="1" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="H796" s="1" t="s">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="I796" s="1" t="s">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="J796" s="2" t="s">
         <v>28</v>
@@ -57587,13 +57584,13 @@
         <v>30</v>
       </c>
       <c r="N796" s="2" t="s">
-        <v>90</v>
+        <v>1020</v>
       </c>
       <c r="O796" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="P796" s="2" t="s">
-        <v>32</v>
+        <v>1021</v>
       </c>
       <c r="Q796" s="2" t="s">
         <v>32</v>
@@ -57625,22 +57622,22 @@
         <v>22</v>
       </c>
       <c r="D797" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E797" s="2" t="s">
         <v>968</v>
       </c>
       <c r="F797" s="2" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="G797" s="1" t="s">
-        <v>268</v>
+        <v>916</v>
       </c>
       <c r="H797" s="1" t="s">
-        <v>269</v>
+        <v>917</v>
       </c>
       <c r="I797" s="1" t="s">
-        <v>269</v>
+        <v>917</v>
       </c>
       <c r="J797" s="2" t="s">
         <v>28</v>
@@ -57655,13 +57652,13 @@
         <v>30</v>
       </c>
       <c r="N797" s="2" t="s">
-        <v>1022</v>
+        <v>81</v>
       </c>
       <c r="O797" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="P797" s="2" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="Q797" s="2" t="s">
         <v>32</v>
@@ -57699,16 +57696,16 @@
         <v>968</v>
       </c>
       <c r="F798" s="2" t="s">
-        <v>205</v>
+        <v>316</v>
       </c>
       <c r="G798" s="1" t="s">
-        <v>916</v>
+        <v>317</v>
       </c>
       <c r="H798" s="1" t="s">
-        <v>917</v>
+        <v>318</v>
       </c>
       <c r="I798" s="1" t="s">
-        <v>917</v>
+        <v>318</v>
       </c>
       <c r="J798" s="2" t="s">
         <v>28</v>
@@ -57723,7 +57720,7 @@
         <v>30</v>
       </c>
       <c r="N798" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O798" s="2" t="s">
         <v>32</v>
@@ -57767,16 +57764,16 @@
         <v>968</v>
       </c>
       <c r="F799" s="2" t="s">
-        <v>316</v>
+        <v>382</v>
       </c>
       <c r="G799" s="1" t="s">
-        <v>317</v>
+        <v>763</v>
       </c>
       <c r="H799" s="1" t="s">
-        <v>318</v>
+        <v>764</v>
       </c>
       <c r="I799" s="1" t="s">
-        <v>318</v>
+        <v>764</v>
       </c>
       <c r="J799" s="2" t="s">
         <v>28</v>
@@ -57791,7 +57788,7 @@
         <v>30</v>
       </c>
       <c r="N799" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O799" s="2" t="s">
         <v>32</v>
@@ -57815,74 +57812,6 @@
         <v>33</v>
       </c>
       <c r="V799" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B800" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C800" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D800" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E800" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="F800" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G800" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="H800" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="I800" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="J800" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K800" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L800" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M800" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N800" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O800" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P800" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q800" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R800" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S800" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T800" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U800" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V800" s="2" t="s">
         <v>32</v>
       </c>
     </row>
